--- a/兜底命中.xlsx
+++ b/兜底命中.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,11 +542,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	2025090223024883</t>
+          <t xml:space="preserve">	2025090515054596</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45902.96045138889</v>
+        <v>45905.6287962963</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1393-电商轻风控b</t>
+          <t>1420-风险专项派单</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>HUAWEI P30 Pro</t>
+          <t>HUAWEI nova 7</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -600,27 +600,27 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>715117</t>
+          <t>663025</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>到期可归还/续租/购买(付押租） 随机颜色-不支持指定 8GB+128GB</t>
+          <t>到期可归还/续租/购买 随机颜色-不支持指定 8GB 128GB</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>38777955</t>
+          <t>62524234</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>一次回流</t>
+          <t>非回流订单</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -642,11 +642,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">	2025090316032169</t>
+          <t xml:space="preserve">	2025090609144089</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45903.66898148148</v>
+        <v>45906.38554398148</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>940-电商-轻风控</t>
+          <t>934-优质盲测对赌</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>HUAWEI P30</t>
+          <t>vivo S20</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -700,22 +700,22 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>715213</t>
+          <t>673990</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>到期可归还/续租/购买 随机颜色 6GB 128GB</t>
+          <t>到期可归还/续租 随机颜色-不支持指定 12GB+256GB</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>62465676</t>
+          <t>38224121</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>6GB</t>
+          <t>12GB</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>256GB</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -742,11 +742,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">	2025090317162247</t>
+          <t xml:space="preserve">	2025090617463387</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45903.72</v>
+        <v>45906.74108796296</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -785,12 +785,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>oppo</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>OPPO Find N2 Flip</t>
+          <t>vivo S15</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -800,22 +800,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>675680</t>
+          <t>673911</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>到期可归还/续租/购买 16GB+512GB 随机颜色</t>
+          <t>到期可归还/续租 随机颜色-不支持指定 12GB+256GB</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>62468439</t>
+          <t>46948397</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>12GB</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>256GB</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -842,11 +842,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	2025090321374965</t>
+          <t xml:space="preserve">	2025090618421643</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45903.90100694444</v>
+        <v>45906.78063657408</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -865,12 +865,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>934-优质盲测对赌</t>
+          <t>940-电商-轻风控</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(10960)二手严选安卓手机商品-商家送检平台代发活动</t>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>vivo X Fold5</t>
+          <t>HUAWEI Mate X5</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -900,37 +900,37 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>717142</t>
+          <t>698998</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>到期可归还/续租/购买 随机颜色 16GB+512GB</t>
+          <t>12GB+256GB 到期可归还/续租/购买 随机颜色</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>17374888</t>
+          <t>62549120</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>非回流订单</t>
+          <t>一次回流</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>12GB</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>256GB</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -942,11 +942,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">	2025090417331878</t>
+          <t xml:space="preserve">	2025090620044857</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45904.73172453704</v>
+        <v>45906.83649305555</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(10960)二手严选安卓手机商品-商家送检平台代发活动</t>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -985,12 +985,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>oppo</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>OPPO Find N2 Flip</t>
+          <t>HUAWEI Mate X5</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1000,37 +1000,37 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>675680</t>
+          <t>707055</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>到期可归还/续租/购买 16GB+512GB 随机颜色</t>
+          <t>随租随还(3个月起)/随时购买 随机颜色 12GB+256GB</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>57256992</t>
+          <t>62507442</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>非回流订单</t>
+          <t>一次回流</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>12GB</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>256GB</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1042,11 +1042,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">	2025090420541872</t>
+          <t xml:space="preserve">	2025090622181632</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45904.87141203704</v>
+        <v>45906.93002314815</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1393-电商轻风控b</t>
+          <t>940-电商-轻风控</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1085,55 +1085,1455 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>vivo</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>vivo X Fold5</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>717142</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>16GB+512GB 到期可归还/续租/购买 随机颜色</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>62537520</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>16GB</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>512GB</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090622231804</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45906.93336805556</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1426-案件回捞通过</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(10960)二手严选安卓手机商品-商家送检平台代发活动</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>一加</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>OnePlus Ace 2V</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>674244</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>到期可归还/续租/购买 随机颜色 12GB+256GB</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>58038614</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090701483506</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45907.07579861111</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1420-风险专项派单</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>红米</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Redmi K80</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>657181</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>随租随还(6个月起)/随时购买 随机颜色-不支持指定 12GB+256GB</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>62297915</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>一次回流</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090713323468</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45907.56457175926</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1426-案件回捞通过</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>华为</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>HUAWEI P30 Pro</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 60 RS</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>二手</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>696330</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>到期可归还/续租/购买 随机颜色-不支持指定 8GB+128GB</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>62494631</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>715814</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>到期可归还/续租/购买 随机颜色 16GB 1TB</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>62457950</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>非回流订单</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>16GB</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1TB</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090715421692</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45907.65478009259</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>940-电商-轻风控</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate X3</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>722826</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>到期可归还/续租/购买 随机颜色 12GB 256GB</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>49574942</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090715451865</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45907.65679398148</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>940-电商-轻风控</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate X3</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>722826</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>到期可归还/续租/购买 随机颜色 12GB 256GB</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>41438763</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090716414496</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45907.69565972222</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1291-微信通过</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate 60 RS</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>712376</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>16GB 1TB 随机颜色 随租随还(6个月起)/随时购买</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>62514403</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>16GB</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1TB</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090717091851</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45907.71525462963</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>940-电商-轻风控</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(10960)二手严选安卓手机商品-商家送检平台代发活动</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>一加</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OnePlus Ace 2V</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>674244</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>到期可归还/续租/购买 随机颜色 12GB+256GB</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>56810746</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090717573958</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45907.74868055555</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1291-微信通过</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate X3</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>722826</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>12GB 256GB 到期可归还/续租/购买 随机颜色</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>61187590</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090718351459</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45907.77505787037</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1325-极优盲测</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate X5</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>702914</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>到期可归还/续租/购买 随机颜色 12GB+256GB</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>62568206</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090720532449</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45907.87059027778</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1420-风险专项派单</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate X3</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>722826</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>到期可归还/续租/购买 随机颜色 12GB 256GB</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>52841409</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090721082955</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45907.88127314814</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>934-优质盲测对赌</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>HUAWEI P60</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>641631</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>到期可归还/续租/购买 随机颜色 8GB 128GB</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>20979255</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>8GB</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>128GB</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090722412086</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45907.94574074074</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>940-电商-轻风控</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>HUAWEI Mate X3</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>722826</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>12GB 256GB 到期可归还/续租/购买 随机颜色</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>53234008</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090723273798</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45907.97809027778</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1420-风险专项派单</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>红米</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Redmi K80</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>656922</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>随租随还(6个月起)/随时购买 随机颜色-不支持指定 12GB+256GB</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>27941651</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>兜底成功-可派发</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	2025090723514459</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45907.99396990741</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>私域流量</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>940-电商-轻风控</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>(10300)二手严选安卓手机商品-平台代发活动</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>待派单</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>红米</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Redmi K80</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>二手</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>657181</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>随租随还(6个月起)/随时购买 随机颜色-不支持指定 12GB+256GB</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>17669088</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>非回流订单</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>12GB</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>兜底成功-可派发</t>
         </is>
